--- a/Forms_013/Default.xlsx
+++ b/Forms_013/Default.xlsx
@@ -15,12 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>Dev Forms/NP Testing 12-17</t>
+  </si>
   <si>
     <t>Welcome to Jerry's Mobile Dentistry - Hi John, On behalf of Jerry's Mobile Dentistry, we are delighted to welcome you to our practice and thank you for choosing display in: English Français Español Jerry's Mobile Dentistry Contact</t>
   </si>
   <si>
+    <t>PrName</t>
+  </si>
+  <si>
+    <t>AccName</t>
+  </si>
+  <si>
     <t>PatName</t>
+  </si>
+  <si>
+    <t>Jerry's Mobile Dentistry</t>
   </si>
 </sst>
 </file>
@@ -165,12 +177,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -190,12 +213,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -494,24 +520,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.41796875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>2</v>
       </c>
     </row>
     <row>
       <c s="2" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" t="s">
         <v>0</v>
+      </c>
+      <c s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Forms_013/Default.xlsx
+++ b/Forms_013/Default.xlsx
@@ -215,10 +215,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -526,8 +526,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="3" width="9.41796875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.41796875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -542,10 +542,10 @@
       </c>
     </row>
     <row>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>0</v>
       </c>
       <c s="3" t="s">
@@ -567,7 +567,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>

--- a/Forms_013/Default.xlsx
+++ b/Forms_013/Default.xlsx
@@ -215,10 +215,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -522,12 +522,14 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="3" width="9.41796875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="3" width="9.41796875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -542,10 +544,10 @@
       </c>
     </row>
     <row>
-      <c s="1" t="s">
+      <c s="2" t="s">
         <v>1</v>
       </c>
-      <c s="1" t="s">
+      <c s="2" t="s">
         <v>0</v>
       </c>
       <c s="3" t="s">
@@ -567,7 +569,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
